--- a/IC/Alfabeto Binario.xlsx
+++ b/IC/Alfabeto Binario.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Inteligencia Computacional\Taller Alfabeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CD2FFF-E8B0-4E08-A789-D7C85921108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF62403-4923-4A19-A8BE-AF62F9C6DB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="0" windowWidth="18679" windowHeight="13942" activeTab="1" xr2:uid="{01171F3E-AF94-47E6-986C-387B8B262408}"/>
+    <workbookView xWindow="7160" yWindow="0" windowWidth="18679" windowHeight="13942" xr2:uid="{01171F3E-AF94-47E6-986C-387B8B262408}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alphabet" sheetId="1" r:id="rId1"/>
-    <sheet name="Training" sheetId="2" r:id="rId2"/>
+    <sheet name="Alphabet" sheetId="4" r:id="rId1"/>
+    <sheet name="Matrix" sheetId="1" r:id="rId2"/>
+    <sheet name="Training" sheetId="2" r:id="rId3"/>
+    <sheet name="Truth Table" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
   <si>
     <t>A</t>
   </si>
@@ -135,6 +137,84 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 1]</t>
   </si>
   <si>
     <t>[0, 0, 0, 0, 0],</t>
@@ -232,13 +312,44 @@
   <si>
     <t>Warning: Leave cells in blank to get a "0" in return, and actually, any text will return "1" in the vector.</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Letra</t>
+  </si>
+  <si>
+    <t>Vector de la letra en binario</t>
+  </si>
+  <si>
+    <t>ID Binaria</t>
+  </si>
+  <si>
+    <t>Es Vocal, Es Válida</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,6 +361,13 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -278,23 +396,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="1" tint="0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -310,11 +456,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -330,21 +476,41 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="1" tint="0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
+          <bgColor theme="1" tint="0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="1" tint="0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -657,6 +823,2847 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894597A1-251B-416D-8DE3-B8F7AF807008}">
+  <dimension ref="B2:AT32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="42" width="2.875" customWidth="1"/>
+    <col min="43" max="43" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:F8">Matrix!A1:E7</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:L8">Matrix!A9:E15</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2:R8">Matrix!A17:E23</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2:X8">Matrix!A25:E31</f>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Z2" cm="1">
+        <f t="array" ref="Z2:AD8">Matrix!A33:E39</f>
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AF2" cm="1">
+        <f t="array" ref="AF2:AJ8">Matrix!A41:E47</f>
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AL2" cm="1">
+        <f t="array" ref="AL2:AP8">Matrix!A49:E55</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B10" cm="1">
+        <f t="array" ref="B10:F16">Matrix!A57:E63</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10:L16">Matrix!A65:E71</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" cm="1">
+        <f t="array" ref="N10:R16">Matrix!A73:E79</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="T10" cm="1">
+        <f t="array" ref="T10:X16">Matrix!A81:E87</f>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Z10" cm="1">
+        <f t="array" ref="Z10:AD16">Matrix!A89:E95</f>
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AF10" cm="1">
+        <f t="array" ref="AF10:AJ16">Matrix!A97:E103</f>
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AL10" cm="1">
+        <f t="array" ref="AL10:AP16">Matrix!A105:E111</f>
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:F24">Matrix!A113:E119</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18:L24">Matrix!A121:E127</f>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18" cm="1">
+        <f t="array" ref="N18:R24">Matrix!A129:E135</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="T18" cm="1">
+        <f t="array" ref="T18:X24">Matrix!A137:E143</f>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Z18" cm="1">
+        <f t="array" ref="Z18:AD24">Matrix!A145:E151</f>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AF18" cm="1">
+        <f t="array" ref="AF18:AJ24">Matrix!A153:E159</f>
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AL18" cm="1">
+        <f t="array" ref="AL18:AP24">Matrix!A161:E167</f>
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="H26" cm="1">
+        <f t="array" ref="H26:L32">Matrix!A169:E175</f>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26" cm="1">
+        <f t="array" ref="N26:R32">Matrix!A177:E183</f>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="T26" cm="1">
+        <f t="array" ref="T26:X32">Matrix!A185:E191</f>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Z26" cm="1">
+        <f t="array" ref="Z26:AD32">Matrix!A193:E199</f>
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AF26" cm="1">
+        <f t="array" ref="AF26:AJ32">Matrix!A201:E207</f>
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="3"/>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AP33">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8650F690-9FE8-484A-8ED4-6A9A8A1E6816}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K207"/>
@@ -667,8 +3674,8 @@
   <cols>
     <col min="1" max="5" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="94.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -681,14 +3688,14 @@
       <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>54</v>
+      <c r="H1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -704,7 +3711,7 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="str" cm="1">
+      <c r="H2" s="4" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A1:E7),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -712,10 +3719,10 @@
         <f>_xlfn.CONCAT("# ",G2)</f>
         <v># A</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="str">
+      <c r="J2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -733,7 +3740,7 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="str" cm="1">
+      <c r="H3" s="4" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A9:E15),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0],</v>
       </c>
@@ -741,10 +3748,10 @@
         <f t="shared" ref="I3:I27" si="0">_xlfn.CONCAT("# ",G3)</f>
         <v># B</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="str">
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K27" si="1">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
@@ -771,7 +3778,7 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="str" cm="1">
+      <c r="H4" s="4" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A17:E23),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -779,10 +3786,10 @@
         <f t="shared" si="0"/>
         <v># C</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="3" t="str">
+      <c r="J4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -800,7 +3807,7 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="str" cm="1">
+      <c r="H5" s="4" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A25:E31),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0],</v>
       </c>
@@ -808,10 +3815,10 @@
         <f t="shared" si="0"/>
         <v># D</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="str">
+      <c r="J5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -829,7 +3836,7 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="3" t="str" cm="1">
+      <c r="H6" s="4" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A33:E39),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,1,0,0,0,0,1,0,0,0,0,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,1,1,1,1],</v>
       </c>
@@ -837,10 +3844,10 @@
         <f t="shared" si="0"/>
         <v># E</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3" t="str">
+      <c r="J6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -858,7 +3865,7 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="str" cm="1">
+      <c r="H7" s="4" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A41:E47),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,1,0,0,0,0,1,0,0,0,0,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
       </c>
@@ -866,10 +3873,10 @@
         <f t="shared" si="0"/>
         <v># F</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="3" t="str">
+      <c r="J7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -881,7 +3888,7 @@
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3" t="str" cm="1">
+      <c r="H8" s="4" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A49:E55),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,1,0,1,1,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -889,10 +3896,10 @@
         <f t="shared" si="0"/>
         <v># G</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="3" t="str">
+      <c r="J8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -916,7 +3923,7 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="3" t="str" cm="1">
+      <c r="H9" s="4" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A57:E63),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,1,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -924,10 +3931,10 @@
         <f t="shared" si="0"/>
         <v># H</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="3" t="str">
+      <c r="J9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -945,7 +3952,7 @@
       <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3" t="str" cm="1">
+      <c r="H10" s="4" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A65:E71),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,1,1,1,0],</v>
       </c>
@@ -953,10 +3960,10 @@
         <f t="shared" si="0"/>
         <v># I</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="3" t="str">
+      <c r="J10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -974,7 +3981,7 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="3" t="str" cm="1">
+      <c r="H11" s="4" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A73:E79),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,1,0,0,1,0,0,1,1,0,0],</v>
       </c>
@@ -982,10 +3989,10 @@
         <f t="shared" si="0"/>
         <v># J</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="3" t="str">
+      <c r="J11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1009,7 +4016,7 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3" t="str" cm="1">
+      <c r="H12" s="4" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A81:E87),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,1,0,1,0,1,0,0,1,1,0,0,0,1,0,1,0,0,1,0,0,1,0,1,0,0,0,1],</v>
       </c>
@@ -1017,10 +4024,10 @@
         <f t="shared" si="0"/>
         <v># K</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="3" t="str">
+      <c r="J12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1038,7 +4045,7 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="str" cm="1">
+      <c r="H13" s="4" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A89:E95),"0","1")),"]",",")</f>
         <v>[1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,1,1,1,1],</v>
       </c>
@@ -1046,10 +4053,10 @@
         <f t="shared" si="0"/>
         <v># L</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="3" t="str">
+      <c r="J13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1067,7 +4074,7 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="3" t="str" cm="1">
+      <c r="H14" s="4" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A97:E103),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,1,0,1,1,1,0,1,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -1075,10 +4082,10 @@
         <f t="shared" si="0"/>
         <v># M</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="3" t="str">
+      <c r="J14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1102,7 +4109,7 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="3" t="str" cm="1">
+      <c r="H15" s="4" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A105:E111),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,1,0,0,1,1,0,1,0,1,1,0,0,1,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -1110,10 +4117,10 @@
         <f t="shared" si="0"/>
         <v># N</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="3" t="str">
+      <c r="J15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1125,7 +4132,7 @@
       <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="3" t="str" cm="1">
+      <c r="H16" s="4" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A113:E119),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -1133,10 +4140,10 @@
         <f t="shared" si="0"/>
         <v># O</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="3" t="str">
+      <c r="J16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -1158,7 +4165,7 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="3" t="str" cm="1">
+      <c r="H17" s="4" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A121:E127),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
       </c>
@@ -1166,10 +4173,10 @@
         <f t="shared" si="0"/>
         <v># P</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="3" t="str">
+      <c r="J17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1187,7 +4194,7 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="3" t="str" cm="1">
+      <c r="H18" s="4" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A129:E135),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,1,1,0,0,1,1,0,1,1,1,0],</v>
       </c>
@@ -1195,10 +4202,10 @@
         <f t="shared" si="0"/>
         <v># Q</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="3" t="str">
+      <c r="J18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1213,7 +4220,7 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3" t="str" cm="1">
+      <c r="H19" s="4" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A137:E143),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,1,0,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -1221,10 +4228,10 @@
         <f t="shared" si="0"/>
         <v># R</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="3" t="str">
+      <c r="J19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1239,7 +4246,7 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="3" t="str" cm="1">
+      <c r="H20" s="4" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A145:E151),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,0,1,1,1,0,0,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -1247,10 +4254,10 @@
         <f t="shared" si="0"/>
         <v># S</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="3" t="str">
+      <c r="J20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1265,7 +4272,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="3" t="str" cm="1">
+      <c r="H21" s="4" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A153:E159),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
@@ -1273,10 +4280,10 @@
         <f t="shared" si="0"/>
         <v># T</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="3" t="str">
+      <c r="J21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1294,7 +4301,7 @@
       <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="3" t="str" cm="1">
+      <c r="H22" s="4" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A161:E167),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -1302,10 +4309,10 @@
         <f t="shared" si="0"/>
         <v># U</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="3" t="str">
+      <c r="J22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -1327,7 +4334,7 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="3" t="str" cm="1">
+      <c r="H23" s="4" t="str" cm="1">
         <f t="array" ref="H23">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A169:E175),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,1,0,1,0,0,0,1,0,0],</v>
       </c>
@@ -1335,10 +4342,10 @@
         <f t="shared" si="0"/>
         <v># V</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="3" t="str">
+      <c r="J23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1350,7 +4357,7 @@
       <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="3" t="str" cm="1">
+      <c r="H24" s="4" t="str" cm="1">
         <f t="array" ref="H24">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A177:E183),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,1,1,0,1,0,1,1,0,1,0,1,0,1,0,1,0],</v>
       </c>
@@ -1358,10 +4365,10 @@
         <f t="shared" si="0"/>
         <v># W</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="3" t="str">
+      <c r="J24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1385,7 +4392,7 @@
       <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="3" t="str" cm="1">
+      <c r="H25" s="4" t="str" cm="1">
         <f t="array" ref="H25">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A185:E191),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,0,1,0,0,0,1,0,1,0,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -1393,10 +4400,10 @@
         <f t="shared" si="0"/>
         <v># X</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="3" t="str">
+      <c r="J25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1414,7 +4421,7 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="3" t="str" cm="1">
+      <c r="H26" s="4" t="str" cm="1">
         <f t="array" ref="H26">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A193:E199),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
@@ -1422,10 +4429,10 @@
         <f t="shared" si="0"/>
         <v># Y</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="3" t="str">
+      <c r="J26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -1443,7 +4450,7 @@
       <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="3" t="str" cm="1">
+      <c r="H27" s="4" t="str" cm="1">
         <f t="array" ref="H27">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A201:E207),"0","1")),"]","]")</f>
         <v>[1,1,1,1,1,0,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,0,1,1,1,1,1]]</v>
       </c>
@@ -1451,10 +4458,10 @@
         <f t="shared" si="0"/>
         <v># Z</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="3" t="str">
+      <c r="J27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="4" t="str">
         <f>"[0,1]]"</f>
         <v>[0,1]]</v>
       </c>
@@ -1475,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1486,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1503,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,7 +5798,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2802,19 +5809,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A127CE0-2311-4989-8F6F-C98C92B59F6D}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="2.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="94.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2827,14 +5834,14 @@
       <c r="D1" s="2">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>54</v>
+      <c r="H1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2850,7 +5857,7 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="str" cm="1">
+      <c r="H2" s="4" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A1:E7),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -2858,10 +5865,10 @@
         <f>_xlfn.CONCAT("# ",G2)</f>
         <v># A</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="str">
+      <c r="J2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -2879,7 +5886,7 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="str" cm="1">
+      <c r="H3" s="4" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A9:E15),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0],</v>
       </c>
@@ -2887,10 +5894,10 @@
         <f t="shared" ref="I3:I27" si="0">_xlfn.CONCAT("# ",G3)</f>
         <v># B</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="str">
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K27" si="1">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
@@ -2917,7 +5924,7 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="str" cm="1">
+      <c r="H4" s="4" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A17:E23),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -2925,10 +5932,10 @@
         <f t="shared" si="0"/>
         <v># C</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="3" t="str">
+      <c r="J4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -2946,7 +5953,7 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="str" cm="1">
+      <c r="H5" s="4" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A25:E31),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0],</v>
       </c>
@@ -2954,10 +5961,10 @@
         <f t="shared" si="0"/>
         <v># D</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="str">
+      <c r="J5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
@@ -2975,7 +5982,7 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="3" t="str" cm="1">
+      <c r="H6" s="4" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A33:E39),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,1,0,0,0,0,1,0,0,0,0,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,1,1,1,1],</v>
       </c>
@@ -2983,10 +5990,10 @@
         <f t="shared" si="0"/>
         <v># E</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3" t="str">
+      <c r="J6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -3004,7 +6011,7 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="str" cm="1">
+      <c r="H7" s="4" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A41:E47),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,1,0,0,0,0,1,0,0,0,0,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
       </c>
@@ -3012,10 +6019,10 @@
         <f t="shared" si="0"/>
         <v># F</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="3" t="str">
+      <c r="J7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="4" t="str">
         <f t="shared" ref="K7:K31" si="2">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
@@ -3027,7 +6034,7 @@
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3" t="str" cm="1">
+      <c r="H8" s="4" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A49:E55),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,1,0,1,1,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -3035,10 +6042,10 @@
         <f t="shared" si="0"/>
         <v># G</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="3" t="str">
+      <c r="J8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[0,1],</v>
       </c>
@@ -3062,7 +6069,7 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="3" t="str" cm="1">
+      <c r="H9" s="4" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A57:E63),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,1,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -3070,10 +6077,10 @@
         <f t="shared" si="0"/>
         <v># H</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="3" t="str">
+      <c r="J9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[0,1],</v>
       </c>
@@ -3091,7 +6098,7 @@
       <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3" t="str" cm="1">
+      <c r="H10" s="4" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A65:E71),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,1,1,1,0],</v>
       </c>
@@ -3099,10 +6106,10 @@
         <f t="shared" si="0"/>
         <v># I</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="3" t="str">
+      <c r="J10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -3120,7 +6127,7 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="3" t="str" cm="1">
+      <c r="H11" s="4" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A73:E79),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,1,0,0,1,0,0,1,1,0,0],</v>
       </c>
@@ -3128,10 +6135,10 @@
         <f t="shared" si="0"/>
         <v># J</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="3" t="str">
+      <c r="J11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <f t="shared" ref="K11:K35" si="3">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
@@ -3155,7 +6162,7 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3" t="str" cm="1">
+      <c r="H12" s="4" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A81:E87),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,1,0,1,0,1,0,0,1,1,0,0,0,1,0,1,0,0,1,0,0,1,0,1,0,0,0,1],</v>
       </c>
@@ -3163,10 +6170,10 @@
         <f t="shared" si="0"/>
         <v># K</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="3" t="str">
+      <c r="J12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
@@ -3184,7 +6191,7 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="str" cm="1">
+      <c r="H13" s="4" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A89:E95),"0","1")),"]",",")</f>
         <v>[1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,1,1,1,1],</v>
       </c>
@@ -3192,10 +6199,10 @@
         <f t="shared" si="0"/>
         <v># L</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="3" t="str">
+      <c r="J13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
@@ -3213,7 +6220,7 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="3" t="str" cm="1">
+      <c r="H14" s="4" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A97:E103),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,1,0,1,1,1,0,1,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -3221,10 +6228,10 @@
         <f t="shared" si="0"/>
         <v># M</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="3" t="str">
+      <c r="J14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
@@ -3248,7 +6255,7 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="3" t="str" cm="1">
+      <c r="H15" s="4" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A105:E111),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,1,0,0,1,1,0,1,0,1,1,0,0,1,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -3256,10 +6263,10 @@
         <f t="shared" si="0"/>
         <v># N</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="3" t="str">
+      <c r="J15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
@@ -3271,7 +6278,7 @@
       <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="3" t="str" cm="1">
+      <c r="H16" s="4" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A113:E119),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -3279,10 +6286,10 @@
         <f t="shared" si="0"/>
         <v># O</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="3" t="str">
+      <c r="J16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -3303,7 +6310,7 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="3" t="str" cm="1">
+      <c r="H17" s="4" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A121:E127),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
       </c>
@@ -3311,10 +6318,10 @@
         <f t="shared" si="0"/>
         <v># P</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="3" t="str">
+      <c r="J17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="4" t="str">
         <f t="shared" ref="K17:K41" si="4">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
@@ -3332,7 +6339,7 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="3" t="str" cm="1">
+      <c r="H18" s="4" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A129:E135),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,1,1,0,0,1,1,0,1,1,1,0],</v>
       </c>
@@ -3340,10 +6347,10 @@
         <f t="shared" si="0"/>
         <v># Q</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="3" t="str">
+      <c r="J18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
@@ -3358,7 +6365,7 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3" t="str" cm="1">
+      <c r="H19" s="4" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A137:E143),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,1,0,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -3366,10 +6373,10 @@
         <f t="shared" si="0"/>
         <v># R</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="3" t="str">
+      <c r="J19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
@@ -3384,7 +6391,7 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="3" t="str" cm="1">
+      <c r="H20" s="4" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A145:E151),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,0,1,1,1,0,0,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -3392,10 +6399,10 @@
         <f t="shared" si="0"/>
         <v># S</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="3" t="str">
+      <c r="J20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
@@ -3410,7 +6417,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="3" t="str" cm="1">
+      <c r="H21" s="4" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A153:E159),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
@@ -3418,10 +6425,10 @@
         <f t="shared" si="0"/>
         <v># T</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="3" t="str">
+      <c r="J21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
@@ -3439,7 +6446,7 @@
       <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="3" t="str" cm="1">
+      <c r="H22" s="4" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A161:E167),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -3447,10 +6454,10 @@
         <f t="shared" si="0"/>
         <v># U</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="3" t="str">
+      <c r="J22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="4" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
@@ -3471,7 +6478,7 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="3" t="str" cm="1">
+      <c r="H23" s="4" t="str" cm="1">
         <f t="array" ref="H23">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A169:E175),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,1,0,1,0,0,0,1,0,0],</v>
       </c>
@@ -3479,10 +6486,10 @@
         <f t="shared" si="0"/>
         <v># V</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="3" t="str">
+      <c r="J23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="4" t="str">
         <f t="shared" ref="K23:K47" si="5">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
@@ -3494,7 +6501,7 @@
       <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="3" t="str" cm="1">
+      <c r="H24" s="4" t="str" cm="1">
         <f t="array" ref="H24">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A177:E183),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,1,1,0,1,0,1,1,0,1,0,1,0,1,0,1,0],</v>
       </c>
@@ -3502,10 +6509,10 @@
         <f t="shared" si="0"/>
         <v># W</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="3" t="str">
+      <c r="J24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[0,1],</v>
       </c>
@@ -3529,7 +6536,7 @@
       <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="3" t="str" cm="1">
+      <c r="H25" s="4" t="str" cm="1">
         <f t="array" ref="H25">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A185:E191),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,0,1,0,0,0,1,0,1,0,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -3537,10 +6544,10 @@
         <f t="shared" si="0"/>
         <v># X</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="3" t="str">
+      <c r="J25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[0,1],</v>
       </c>
@@ -3558,7 +6565,7 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="3" t="str" cm="1">
+      <c r="H26" s="4" t="str" cm="1">
         <f t="array" ref="H26">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A193:E199),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
@@ -3566,10 +6573,10 @@
         <f t="shared" si="0"/>
         <v># Y</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="3" t="str">
+      <c r="J26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[0,1],</v>
       </c>
@@ -3587,7 +6594,7 @@
       <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="3" t="str" cm="1">
+      <c r="H27" s="4" t="str" cm="1">
         <f t="array" ref="H27">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A201:E207),"0","1")),"]","]")</f>
         <v>[1,1,1,1,1,0,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,0,1,1,1,1,1]]</v>
       </c>
@@ -3595,10 +6602,10 @@
         <f t="shared" si="0"/>
         <v># Z</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="3" t="str">
+      <c r="J27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="4" t="str">
         <f>"[0,1]]"</f>
         <v>[0,1]]</v>
       </c>
@@ -3619,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3630,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3647,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4935,7 +7942,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4944,4 +7951,2053 @@
     <ignoredError sqref="K6:K22" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D28E15-733C-45BB-9D4B-693E33518AA9}">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:J207"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="2.625" customWidth="1"/>
+    <col min="7" max="7" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="91.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A1:E7),"0","1")),"]")</f>
+        <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1]</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>"[1, 1]"</f>
+        <v>[1, 1]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="str" cm="1">
+        <f t="array" ref="H3">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A9:E15),"0","1")),"]")</f>
+        <v>[1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0]</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="str">
+        <f t="shared" ref="J3:J27" si="0">"[0, 1]"</f>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A17:E23),"0","1")),"]")</f>
+        <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 0]</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A25:E31),"0","1")),"]")</f>
+        <v>[1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0]</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A33:E39),"0","1")),"]")</f>
+        <v>[1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 1]</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f>"[1, 1]"</f>
+        <v>[1, 1]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A41:E47),"0","1")),"]")</f>
+        <v>[1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0]</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="10">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A49:E55),"0","1")),"]")</f>
+        <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0]</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A57:E63),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1]</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A65:E71),"0","1")),"]")</f>
+        <v>[0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0]</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="6" t="str">
+        <f>"[1, 1]"</f>
+        <v>[1, 1]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A73:E79),"0","1")),"]")</f>
+        <v>[1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0]</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A81:E87),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1]</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A89:E95),"0","1")),"]")</f>
+        <v>[1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 1]</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A97:E103),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1]</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A105:E111),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 1]</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="11">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="str" cm="1">
+        <f t="array" ref="H16">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A113:E119),"0","1")),"]")</f>
+        <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0]</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="6" t="str">
+        <f>"[1, 1]"</f>
+        <v>[1, 1]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="10">
+        <v>15</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A121:E127),"0","1")),"]")</f>
+        <v>[1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0]</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="str" cm="1">
+        <f t="array" ref="H18">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A129:E135),"0","1")),"]")</f>
+        <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 1 0 1 1 1 0]</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>17</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="6" t="str" cm="1">
+        <f t="array" ref="H19">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A137:E143),"0","1")),"]")</f>
+        <v>[1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 1]</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6" t="str" cm="1">
+        <f t="array" ref="H20">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A145:E151),"0","1")),"]")</f>
+        <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0]</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>19</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="6" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A153:E159),"0","1")),"]")</f>
+        <v>[1 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0]</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="6" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A161:E167),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0]</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="6" t="str">
+        <f>"[1, 1]"</f>
+        <v>[1, 1]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="10">
+        <v>21</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="6" t="str" cm="1">
+        <f t="array" ref="H23">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A169:E175),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0]</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="10">
+        <v>22</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="6" t="str" cm="1">
+        <f t="array" ref="H24">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A177:E183),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0]</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>23</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="6" t="str" cm="1">
+        <f t="array" ref="H25">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A185:E191),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1]</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>24</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="6" t="str" cm="1">
+        <f t="array" ref="H26">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A193:E199),"0","1")),"]")</f>
+        <v>[1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0]</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>25</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="6" t="str" cm="1">
+        <f t="array" ref="H27">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A201:E207),"0","1")),"]")</f>
+        <v>[1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1]</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0, 1]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J6 J10 J16 J22" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/IC/Alfabeto Binario.xlsx
+++ b/IC/Alfabeto Binario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Inteligencia Computacional\Taller Alfabeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF62403-4923-4A19-A8BE-AF62F9C6DB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF93A96-372A-4F60-BE42-EA5C9B194D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="0" windowWidth="18679" windowHeight="13942" xr2:uid="{01171F3E-AF94-47E6-986C-387B8B262408}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26055" windowHeight="14158" xr2:uid="{01171F3E-AF94-47E6-986C-387B8B262408}"/>
   </bookViews>
   <sheets>
     <sheet name="Alphabet" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="116">
   <si>
     <t>A</t>
   </si>
@@ -326,6 +326,87 @@
   </si>
   <si>
     <t>Es Vocal, Es Válida</t>
+  </si>
+  <si>
+    <t># A</t>
+  </si>
+  <si>
+    <t># B</t>
+  </si>
+  <si>
+    <t># C</t>
+  </si>
+  <si>
+    <t># D</t>
+  </si>
+  <si>
+    <t># E</t>
+  </si>
+  <si>
+    <t># F</t>
+  </si>
+  <si>
+    <t># G</t>
+  </si>
+  <si>
+    <t># H</t>
+  </si>
+  <si>
+    <t># I</t>
+  </si>
+  <si>
+    <t># J</t>
+  </si>
+  <si>
+    <t># K</t>
+  </si>
+  <si>
+    <t># L</t>
+  </si>
+  <si>
+    <t># M</t>
+  </si>
+  <si>
+    <t># N</t>
+  </si>
+  <si>
+    <t># O</t>
+  </si>
+  <si>
+    <t># P</t>
+  </si>
+  <si>
+    <t># Q</t>
+  </si>
+  <si>
+    <t># R</t>
+  </si>
+  <si>
+    <t># S</t>
+  </si>
+  <si>
+    <t># T</t>
+  </si>
+  <si>
+    <t># U</t>
+  </si>
+  <si>
+    <t># V</t>
+  </si>
+  <si>
+    <t># W</t>
+  </si>
+  <si>
+    <t># X</t>
+  </si>
+  <si>
+    <t># Y</t>
+  </si>
+  <si>
+    <t># Z</t>
+  </si>
+  <si>
+    <t>out_is_vowel_is_valid = [</t>
   </si>
 </sst>
 </file>
@@ -396,10 +477,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -418,12 +498,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="1" tint="0.14996795556505021"/>
@@ -431,36 +510,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -501,16 +550,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3494,7 +3533,7 @@
       <c r="AJ30">
         <v>0</v>
       </c>
-      <c r="AT30" s="3"/>
+      <c r="AT30" s="2"/>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.25">
       <c r="H31">
@@ -3652,10 +3691,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AP33">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3666,19 +3705,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8650F690-9FE8-484A-8ED4-6A9A8A1E6816}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K207"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="94.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -3688,17 +3732,17 @@
       <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3711,23 +3755,28 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="str" cm="1">
+      <c r="H2" s="3" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A1:E7),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
-      <c r="I2" t="str">
-        <f>_xlfn.CONCAT("# ",G2)</f>
-        <v># A</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="4" t="str">
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3740,23 +3789,28 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="str" cm="1">
+      <c r="H3" s="3" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A9:E15),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0],</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I27" si="0">_xlfn.CONCAT("# ",G3)</f>
-        <v># B</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K27" si="1">"[0,1],"</f>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" ref="L3:L26" si="0">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3772,29 +3826,34 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="str" cm="1">
+      <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A17:E23),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># C</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3807,23 +3866,28 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="str" cm="1">
+      <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A25:E31),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0],</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># D</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3836,75 +3900,90 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="str" cm="1">
+      <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A33:E39),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,1,0,0,0,0,1,0,0,0,0,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,1,1,1,1],</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v># E</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="4" t="str" cm="1">
+      <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A41:E47),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,1,0,0,0,0,1,0,0,0,0,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># F</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="str" cm="1">
+      <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A49:E55),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,1,0,1,1,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># G</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3923,52 +4002,62 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="str" cm="1">
+      <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A57:E63),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,1,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># H</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="4" t="str" cm="1">
+      <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A65:E71),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,1,1,1,0],</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v># I</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3981,23 +4070,28 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="str" cm="1">
+      <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A73:E79),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,1,0,0,1,0,0,1,1,0,0],</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># J</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4016,52 +4110,62 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4" t="str" cm="1">
+      <c r="H12" s="3" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A81:E87),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,1,0,1,0,1,0,0,1,1,0,0,0,1,0,1,0,0,1,0,0,1,0,1,0,0,0,1],</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># K</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="str" cm="1">
+      <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A89:E95),"0","1")),"]",",")</f>
         <v>[1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,1,1,1,1],</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># L</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4074,23 +4178,28 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4" t="str" cm="1">
+      <c r="H14" s="3" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A97:E103),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,1,0,1,1,1,0,1,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># M</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -4109,46 +4218,56 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="4" t="str" cm="1">
+      <c r="H15" s="3" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A105:E111),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,1,0,0,1,1,0,1,0,1,1,0,0,1,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># N</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="2">
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16">
         <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="4" t="str" cm="1">
+      <c r="H16" s="3" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A113:E119),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v># O</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1</v>
       </c>
@@ -4158,30 +4277,34 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="4" t="str" cm="1">
+      <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A121:E127),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># P</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4194,49 +4317,59 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="4" t="str" cm="1">
+      <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A129:E135),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,1,1,0,0,1,1,0,1,1,1,0],</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># Q</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="4" t="str" cm="1">
+      <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A137:E143),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,1,0,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># R</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4246,23 +4379,28 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="4" t="str" cm="1">
+      <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A145:E151),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,0,1,1,1,0,0,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># S</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -4272,52 +4410,62 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="4" t="str" cm="1">
+      <c r="H21" s="3" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A153:E159),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># T</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="4" t="str" cm="1">
+      <c r="H22" s="3" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A161:E167),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v># U</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="K22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>1</v>
       </c>
@@ -4327,53 +4475,62 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
       <c r="F23">
         <v>21</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="4" t="str" cm="1">
+      <c r="H23" s="3" t="str" cm="1">
         <f t="array" ref="H23">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A169:E175),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,1,0,1,0,0,0,1,0,0],</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># V</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>22</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="4" t="str" cm="1">
+      <c r="H24" s="3" t="str" cm="1">
         <f t="array" ref="H24">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A177:E183),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,1,1,0,1,0,1,1,0,1,0,1,0,1,0,1,0],</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># W</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -4386,29 +4543,34 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="4" t="str" cm="1">
+      <c r="H25" s="3" t="str" cm="1">
         <f t="array" ref="H25">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A185:E191),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,0,1,0,0,0,1,0,1,0,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># X</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -4421,23 +4583,28 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="4" t="str" cm="1">
+      <c r="H26" s="3" t="str" cm="1">
         <f t="array" ref="H26">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A193:E199),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v># Y</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -4450,23 +4617,28 @@
       <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="4" t="str" cm="1">
+      <c r="H27" s="3" t="str" cm="1">
         <f t="array" ref="H27">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A201:E207),"0","1")),"]","]")</f>
         <v>[1,1,1,1,1,0,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,0,1,1,1,1,1]]</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v># Z</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="I27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="K27" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="3" t="str">
         <f>"[0,1]]"</f>
         <v>[0,1]]</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -4474,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -4485,7 +4657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -4496,7 +4668,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -5798,13 +5970,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K10 K6 K16 K22" formula="1"/>
+    <ignoredError sqref="L10 L6 L16 L22" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5818,37 +5990,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="2.625" style="2" customWidth="1"/>
+    <col min="1" max="5" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="94.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
@@ -5857,7 +6029,7 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="str" cm="1">
+      <c r="H2" s="3" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A1:E7),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -5865,19 +6037,19 @@
         <f>_xlfn.CONCAT("# ",G2)</f>
         <v># A</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="4" t="str">
+      <c r="K2" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
@@ -5886,7 +6058,7 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="str" cm="1">
+      <c r="H3" s="3" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A9:E15),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0],</v>
       </c>
@@ -5894,37 +6066,37 @@
         <f t="shared" ref="I3:I27" si="0">_xlfn.CONCAT("# ",G3)</f>
         <v># B</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K27" si="1">"[0,1],"</f>
+      <c r="K3" s="3" t="str">
+        <f t="shared" ref="K3:K5" si="1">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="str" cm="1">
+      <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A17:E23),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -5932,19 +6104,19 @@
         <f t="shared" si="0"/>
         <v># C</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="4" t="str">
+      <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
@@ -5953,7 +6125,7 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="str" cm="1">
+      <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A25:E31),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0],</v>
       </c>
@@ -5961,19 +6133,19 @@
         <f t="shared" si="0"/>
         <v># D</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="4" t="str">
+      <c r="K5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
@@ -5982,7 +6154,7 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="str" cm="1">
+      <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A33:E39),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,1,0,0,0,0,1,0,0,0,0,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,1,1,1,1],</v>
       </c>
@@ -5990,28 +6162,28 @@
         <f t="shared" si="0"/>
         <v># E</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="4" t="str" cm="1">
+      <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A41:E47),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,1,0,0,0,0,1,0,0,0,0,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
       </c>
@@ -6019,11 +6191,11 @@
         <f t="shared" si="0"/>
         <v># F</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="4" t="str">
-        <f t="shared" ref="K7:K31" si="2">"[0,1],"</f>
+      <c r="K7" s="3" t="str">
+        <f t="shared" ref="K7:K9" si="2">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
     </row>
@@ -6034,7 +6206,7 @@
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="str" cm="1">
+      <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A49:E55),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,1,0,1,1,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -6042,25 +6214,25 @@
         <f t="shared" si="0"/>
         <v># G</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="F9">
@@ -6069,7 +6241,7 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="str" cm="1">
+      <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A57:E63),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,1,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -6077,28 +6249,28 @@
         <f t="shared" si="0"/>
         <v># H</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="K9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="4" t="str" cm="1">
+      <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A65:E71),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,1,1,1,0],</v>
       </c>
@@ -6106,19 +6278,19 @@
         <f t="shared" si="0"/>
         <v># I</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="K10" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
@@ -6127,7 +6299,7 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="str" cm="1">
+      <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A73:E79),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,1,0,0,1,0,0,1,1,0,0],</v>
       </c>
@@ -6135,25 +6307,25 @@
         <f t="shared" si="0"/>
         <v># J</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="4" t="str">
-        <f t="shared" ref="K11:K35" si="3">"[0,1],"</f>
+      <c r="K11" s="3" t="str">
+        <f t="shared" ref="K11:K15" si="3">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
       <c r="F12">
@@ -6162,7 +6334,7 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4" t="str" cm="1">
+      <c r="H12" s="3" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A81:E87),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,1,0,1,0,1,0,0,1,1,0,0,0,1,0,1,0,0,1,0,0,1,0,1,0,0,0,1],</v>
       </c>
@@ -6170,28 +6342,28 @@
         <f t="shared" si="0"/>
         <v># K</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="4" t="str">
+      <c r="K12" s="3" t="str">
         <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="str" cm="1">
+      <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A89:E95),"0","1")),"]",",")</f>
         <v>[1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,1,1,1,1],</v>
       </c>
@@ -6199,19 +6371,19 @@
         <f t="shared" si="0"/>
         <v># L</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="4" t="str">
+      <c r="K13" s="3" t="str">
         <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
@@ -6220,7 +6392,7 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4" t="str" cm="1">
+      <c r="H14" s="3" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A97:E103),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,1,0,1,1,1,0,1,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -6228,25 +6400,25 @@
         <f t="shared" si="0"/>
         <v># M</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="K14" s="3" t="str">
         <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
       <c r="F15">
@@ -6255,7 +6427,7 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="4" t="str" cm="1">
+      <c r="H15" s="3" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A105:E111),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,1,0,0,1,1,0,1,0,1,1,0,0,1,1,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -6263,22 +6435,22 @@
         <f t="shared" si="0"/>
         <v># N</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="K15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="2">
+      <c r="F16">
         <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="4" t="str" cm="1">
+      <c r="H16" s="3" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A113:E119),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -6286,22 +6458,22 @@
         <f t="shared" si="0"/>
         <v># O</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="K16" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="F17">
@@ -6310,7 +6482,7 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="4" t="str" cm="1">
+      <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A121:E127),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
       </c>
@@ -6318,19 +6490,19 @@
         <f t="shared" si="0"/>
         <v># P</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="4" t="str">
-        <f t="shared" ref="K17:K41" si="4">"[0,1],"</f>
+      <c r="K17" s="3" t="str">
+        <f t="shared" ref="K17:K21" si="4">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
@@ -6339,7 +6511,7 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="4" t="str" cm="1">
+      <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A129:E135),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,1,1,0,0,1,1,0,1,1,1,0],</v>
       </c>
@@ -6347,25 +6519,25 @@
         <f t="shared" si="0"/>
         <v># Q</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="4" t="str">
+      <c r="K18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="4" t="str" cm="1">
+      <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A137:E143),"0","1")),"]",",")</f>
         <v>[1,1,1,1,0,1,0,0,0,1,1,0,0,0,1,1,1,1,1,0,1,0,0,1,0,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -6373,16 +6545,16 @@
         <f t="shared" si="0"/>
         <v># R</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="K19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>1</v>
       </c>
       <c r="F20">
@@ -6391,7 +6563,7 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="4" t="str" cm="1">
+      <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A145:E151),"0","1")),"]",",")</f>
         <v>[0,1,1,1,0,1,0,0,0,1,1,0,0,0,0,0,1,1,1,0,0,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -6399,16 +6571,16 @@
         <f t="shared" si="0"/>
         <v># S</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="4" t="str">
+      <c r="K20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>1</v>
       </c>
       <c r="F21">
@@ -6417,7 +6589,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="4" t="str" cm="1">
+      <c r="H21" s="3" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A153:E159),"0","1")),"]",",")</f>
         <v>[1,1,1,1,1,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
@@ -6425,28 +6597,28 @@
         <f t="shared" si="0"/>
         <v># T</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="4" t="str">
+      <c r="K21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="4" t="str" cm="1">
+      <c r="H22" s="3" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A161:E167),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,1,1,0],</v>
       </c>
@@ -6454,22 +6626,22 @@
         <f t="shared" si="0"/>
         <v># U</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="K22" s="3" t="str">
         <f>"[1,1],"</f>
         <v>[1,1],</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
       <c r="F23">
@@ -6478,7 +6650,7 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="4" t="str" cm="1">
+      <c r="H23" s="3" t="str" cm="1">
         <f t="array" ref="H23">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A169:E175),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,1,0,1,0,0,0,1,0,0],</v>
       </c>
@@ -6486,11 +6658,11 @@
         <f t="shared" si="0"/>
         <v># V</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="4" t="str">
-        <f t="shared" ref="K23:K47" si="5">"[0,1],"</f>
+      <c r="K23" s="3" t="str">
+        <f t="shared" ref="K23:K26" si="5">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
     </row>
@@ -6501,7 +6673,7 @@
       <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="4" t="str" cm="1">
+      <c r="H24" s="3" t="str" cm="1">
         <f t="array" ref="H24">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A177:E183),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,1,1,0,1,0,1,1,0,1,0,1,0,1,0,1,0],</v>
       </c>
@@ -6509,34 +6681,34 @@
         <f t="shared" si="0"/>
         <v># W</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="K24" s="3" t="str">
         <f t="shared" si="5"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="4" t="str" cm="1">
+      <c r="H25" s="3" t="str" cm="1">
         <f t="array" ref="H25">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A185:E191),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,0,1,0,0,0,1,0,1,0,1,0,0,0,1,1,0,0,0,1],</v>
       </c>
@@ -6544,19 +6716,19 @@
         <f t="shared" si="0"/>
         <v># X</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K25" s="4" t="str">
+      <c r="K25" s="3" t="str">
         <f t="shared" si="5"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
@@ -6565,7 +6737,7 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="4" t="str" cm="1">
+      <c r="H26" s="3" t="str" cm="1">
         <f t="array" ref="H26">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A193:E199),"0","1")),"]",",")</f>
         <v>[1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
@@ -6573,19 +6745,19 @@
         <f t="shared" si="0"/>
         <v># Y</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="K26" s="3" t="str">
         <f t="shared" si="5"/>
         <v>[0,1],</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
@@ -6594,7 +6766,7 @@
       <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="4" t="str" cm="1">
+      <c r="H27" s="3" t="str" cm="1">
         <f t="array" ref="H27">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A201:E207),"0","1")),"]","]")</f>
         <v>[1,1,1,1,1,0,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,1,0,0,0,0,1,1,1,1,1]]</v>
       </c>
@@ -6602,27 +6774,27 @@
         <f t="shared" si="0"/>
         <v># Z</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="K27" s="3" t="str">
         <f>"[0,1]]"</f>
         <v>[0,1]]</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
@@ -6630,10 +6802,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
@@ -6641,16 +6813,16 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
@@ -6658,1291 +6830,1291 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="E61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="E63">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="2">
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="2">
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="2">
+      <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="2">
+      <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="2">
+      <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>1</v>
-      </c>
-      <c r="B73" s="2">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="2">
+      <c r="D74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="2">
+      <c r="D75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="2">
+      <c r="D76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="2">
+      <c r="D77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="D78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="2">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="E81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="D82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>1</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>1</v>
-      </c>
-      <c r="D86" s="2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="D86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="E87">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>1</v>
-      </c>
-      <c r="B95" s="2">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2">
-        <v>1</v>
-      </c>
-      <c r="D95" s="2">
-        <v>1</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>1</v>
-      </c>
-      <c r="E97" s="2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>1</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1</v>
-      </c>
-      <c r="D98" s="2">
-        <v>1</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>1</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="E99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>1</v>
-      </c>
-      <c r="E100" s="2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="E100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>1</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="E101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="E102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>1</v>
-      </c>
-      <c r="E103" s="2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="E103">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>1</v>
-      </c>
-      <c r="E105" s="2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="E105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>1</v>
-      </c>
-      <c r="E106" s="2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="E106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>1</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="E107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="E108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>1</v>
-      </c>
-      <c r="D109" s="2">
-        <v>1</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>1</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="E110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>1</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="E111">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="2">
-        <v>1</v>
-      </c>
-      <c r="D113" s="2">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>1</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="E114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>1</v>
-      </c>
-      <c r="E115" s="2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="E115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>1</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="E116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>1</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="E117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>1</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="E118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="2">
-        <v>1</v>
-      </c>
-      <c r="C119" s="2">
-        <v>1</v>
-      </c>
-      <c r="D119" s="2">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>1</v>
-      </c>
-      <c r="B121" s="2">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2">
-        <v>1</v>
-      </c>
-      <c r="D121" s="2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="E122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>1</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="E123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>1</v>
-      </c>
-      <c r="B124" s="2">
-        <v>1</v>
-      </c>
-      <c r="C124" s="2">
-        <v>1</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="2">
-        <v>1</v>
-      </c>
-      <c r="C129" s="2">
-        <v>1</v>
-      </c>
-      <c r="D129" s="2">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>1</v>
-      </c>
-      <c r="E130" s="2">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="E130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>1</v>
-      </c>
-      <c r="E131" s="2">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="E131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>1</v>
-      </c>
-      <c r="E132" s="2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="E132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>1</v>
-      </c>
-      <c r="C133" s="2">
-        <v>1</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="E133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>1</v>
-      </c>
-      <c r="D134" s="2">
-        <v>1</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="2">
-        <v>1</v>
-      </c>
-      <c r="C135" s="2">
-        <v>1</v>
-      </c>
-      <c r="D135" s="2">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>1</v>
-      </c>
-      <c r="B137" s="2">
-        <v>1</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1</v>
-      </c>
-      <c r="D137" s="2">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>1</v>
-      </c>
-      <c r="E138" s="2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="E138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>1</v>
-      </c>
-      <c r="E139" s="2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="E139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>1</v>
-      </c>
-      <c r="B140" s="2">
-        <v>1</v>
-      </c>
-      <c r="C140" s="2">
-        <v>1</v>
-      </c>
-      <c r="D140" s="2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>1</v>
-      </c>
-      <c r="D141" s="2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="D141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>1</v>
-      </c>
-      <c r="E142" s="2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="E142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>1</v>
-      </c>
-      <c r="E143" s="2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="E143">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="2">
-        <v>1</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>1</v>
-      </c>
-      <c r="E146" s="2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="E146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="A147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="2">
-        <v>1</v>
-      </c>
-      <c r="C148" s="2">
-        <v>1</v>
-      </c>
-      <c r="D148" s="2">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="2">
+      <c r="E149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="E150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="2">
-        <v>1</v>
-      </c>
-      <c r="C151" s="2">
-        <v>1</v>
-      </c>
-      <c r="D151" s="2">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>1</v>
-      </c>
-      <c r="B153" s="2">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2">
-        <v>1</v>
-      </c>
-      <c r="D153" s="2">
-        <v>1</v>
-      </c>
-      <c r="E153" s="2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C154" s="2">
+      <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C155" s="2">
+      <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="2">
+      <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C157" s="2">
+      <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C158" s="2">
+      <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C159" s="2">
+      <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>1</v>
-      </c>
-      <c r="E161" s="2">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="E161">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>1</v>
-      </c>
-      <c r="E162" s="2">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="E162">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>1</v>
-      </c>
-      <c r="E163" s="2">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="E163">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>1</v>
-      </c>
-      <c r="E164" s="2">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="E164">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>1</v>
-      </c>
-      <c r="E165" s="2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="E165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>1</v>
-      </c>
-      <c r="E166" s="2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="E166">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="2">
-        <v>1</v>
-      </c>
-      <c r="C167" s="2">
-        <v>1</v>
-      </c>
-      <c r="D167" s="2">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>1</v>
-      </c>
-      <c r="E169" s="2">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="E169">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>1</v>
-      </c>
-      <c r="E170" s="2">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="E170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>1</v>
-      </c>
-      <c r="E171" s="2">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="E171">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>1</v>
-      </c>
-      <c r="E172" s="2">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="E172">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="2">
-        <v>1</v>
-      </c>
-      <c r="D173" s="2">
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="D173">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="2">
-        <v>1</v>
-      </c>
-      <c r="D174" s="2">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="D174">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="2">
+      <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>1</v>
-      </c>
-      <c r="E177" s="2">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="E177">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>1</v>
-      </c>
-      <c r="E178" s="2">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="E178">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>1</v>
-      </c>
-      <c r="E179" s="2">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="E179">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>1</v>
-      </c>
-      <c r="C180" s="2">
-        <v>1</v>
-      </c>
-      <c r="E180" s="2">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="E180">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>1</v>
-      </c>
-      <c r="C181" s="2">
-        <v>1</v>
-      </c>
-      <c r="E181" s="2">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="E181">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>1</v>
-      </c>
-      <c r="C182" s="2">
-        <v>1</v>
-      </c>
-      <c r="E182" s="2">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="E182">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="2">
-        <v>1</v>
-      </c>
-      <c r="D183" s="2">
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="D183">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>1</v>
-      </c>
-      <c r="E185" s="2">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="E185">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>1</v>
-      </c>
-      <c r="E186" s="2">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="E186">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="2">
-        <v>1</v>
-      </c>
-      <c r="D187" s="2">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="D187">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="2">
+      <c r="C188">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="2">
-        <v>1</v>
-      </c>
-      <c r="D189" s="2">
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="D189">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>1</v>
-      </c>
-      <c r="E190" s="2">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="E190">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>1</v>
-      </c>
-      <c r="E191" s="2">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="E191">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>1</v>
-      </c>
-      <c r="E193" s="2">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="E193">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>1</v>
-      </c>
-      <c r="E194" s="2">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="E194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="2">
-        <v>1</v>
-      </c>
-      <c r="D195" s="2">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="D195">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C196" s="2">
+      <c r="C196">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C197" s="2">
+      <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C198" s="2">
+      <c r="C198">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C199" s="2">
+      <c r="C199">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>1</v>
-      </c>
-      <c r="B201" s="2">
-        <v>1</v>
-      </c>
-      <c r="C201" s="2">
-        <v>1</v>
-      </c>
-      <c r="D201" s="2">
-        <v>1</v>
-      </c>
-      <c r="E201" s="2">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E202" s="2">
+      <c r="E202">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D203" s="2">
+      <c r="D203">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C204" s="2">
+      <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="2">
+      <c r="B205">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="A206">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>1</v>
-      </c>
-      <c r="B207" s="2">
-        <v>1</v>
-      </c>
-      <c r="C207" s="2">
-        <v>1</v>
-      </c>
-      <c r="D207" s="2">
-        <v>1</v>
-      </c>
-      <c r="E207" s="2">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7963,10 +8135,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="2.625" customWidth="1"/>
-    <col min="7" max="7" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="91.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7979,19 +8151,19 @@
       <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8002,20 +8174,20 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="str" cm="1">
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A1:E7),"0","1")),"]")</f>
         <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1]</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6" t="str">
+      <c r="J2" s="5" t="str">
         <f>"[1, 1]"</f>
         <v>[1, 1]</v>
       </c>
@@ -8027,20 +8199,20 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="str" cm="1">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A9:E15),"0","1")),"]")</f>
         <v>[1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0]</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="6" t="str">
+      <c r="J3" s="5" t="str">
         <f t="shared" ref="J3:J27" si="0">"[0, 1]"</f>
         <v>[0, 1]</v>
       </c>
@@ -8061,20 +8233,20 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="6" t="str" cm="1">
+      <c r="H4" s="5" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A17:E23),"0","1")),"]")</f>
         <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 0]</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="6" t="str">
+      <c r="J4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8086,20 +8258,20 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="str" cm="1">
+      <c r="H5" s="5" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A25:E31),"0","1")),"]")</f>
         <v>[1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0]</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="6" t="str">
+      <c r="J5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8111,20 +8283,20 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="6" t="str" cm="1">
+      <c r="H6" s="5" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A33:E39),"0","1")),"]")</f>
         <v>[1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 1]</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="J6" s="5" t="str">
         <f>"[1, 1]"</f>
         <v>[1, 1]</v>
       </c>
@@ -8136,39 +8308,39 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="str" cm="1">
+      <c r="H7" s="5" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A41:E47),"0","1")),"]")</f>
         <v>[1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0]</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>6</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="6" t="str" cm="1">
+      <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A49:E55),"0","1")),"]")</f>
         <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0]</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="6" t="str">
+      <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8186,20 +8358,20 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="6" t="str" cm="1">
+      <c r="H9" s="5" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A57:E63),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1]</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8211,20 +8383,20 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>8</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="6" t="str" cm="1">
+      <c r="H10" s="5" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A65:E71),"0","1")),"]")</f>
         <v>[0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0]</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="6" t="str">
+      <c r="J10" s="5" t="str">
         <f>"[1, 1]"</f>
         <v>[1, 1]</v>
       </c>
@@ -8236,20 +8408,20 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>9</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="6" t="str" cm="1">
+      <c r="H11" s="5" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A73:E79),"0","1")),"]")</f>
         <v>[1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0]</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="6" t="str">
+      <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8267,20 +8439,20 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>10</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6" t="str" cm="1">
+      <c r="H12" s="5" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A81:E87),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1]</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="6" t="str">
+      <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8292,20 +8464,20 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>11</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="6" t="str" cm="1">
+      <c r="H13" s="5" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A89:E95),"0","1")),"]")</f>
         <v>[1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 1]</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="6" t="str">
+      <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8317,20 +8489,20 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>12</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="6" t="str" cm="1">
+      <c r="H14" s="5" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A97:E103),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1]</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8348,39 +8520,39 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>13</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="6" t="str" cm="1">
+      <c r="H15" s="5" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A105:E111),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 1]</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="6" t="str">
+      <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>14</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="6" t="str" cm="1">
+      <c r="H16" s="5" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A113:E119),"0","1")),"]")</f>
         <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0]</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="6" t="str">
+      <c r="J16" s="5" t="str">
         <f>"[1, 1]"</f>
         <v>[1, 1]</v>
       </c>
@@ -8395,21 +8567,20 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>15</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6" t="str" cm="1">
+      <c r="H17" s="5" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A121:E127),"0","1")),"]")</f>
         <v>[1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0]</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="6" t="str">
+      <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8421,20 +8592,20 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>16</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="6" t="str" cm="1">
+      <c r="H18" s="5" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A129:E135),"0","1")),"]")</f>
         <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 1 0 1 1 1 0]</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="6" t="str">
+      <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8443,20 +8614,20 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>17</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="6" t="str" cm="1">
+      <c r="H19" s="5" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A137:E143),"0","1")),"]")</f>
         <v>[1 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 1]</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="6" t="str">
+      <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8465,20 +8636,20 @@
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>18</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="6" t="str" cm="1">
+      <c r="H20" s="5" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A145:E151),"0","1")),"]")</f>
         <v>[0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0]</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8487,20 +8658,20 @@
       <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>19</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="6" t="str" cm="1">
+      <c r="H21" s="5" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A153:E159),"0","1")),"]")</f>
         <v>[1 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0]</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="6" t="str">
+      <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8512,20 +8683,20 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>20</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="6" t="str" cm="1">
+      <c r="H22" s="5" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A161:E167),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0]</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="6" t="str">
+      <c r="J22" s="5" t="str">
         <f>"[1, 1]"</f>
         <v>[1, 1]</v>
       </c>
@@ -8540,40 +8711,39 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>21</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="6" t="str" cm="1">
+      <c r="H23" s="5" t="str" cm="1">
         <f t="array" ref="H23">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A169:E175),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0]</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="6" t="str">
+      <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>22</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="6" t="str" cm="1">
+      <c r="H24" s="5" t="str" cm="1">
         <f t="array" ref="H24">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A177:E183),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0]</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="6" t="str">
+      <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8591,20 +8761,20 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>23</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="6" t="str" cm="1">
+      <c r="H25" s="5" t="str" cm="1">
         <f t="array" ref="H25">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A185:E191),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1]</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="6" t="str">
+      <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8616,20 +8786,20 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>24</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="6" t="str" cm="1">
+      <c r="H26" s="5" t="str" cm="1">
         <f t="array" ref="H26">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A193:E199),"0","1")),"]")</f>
         <v>[1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0]</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="6" t="str">
+      <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -8641,20 +8811,20 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>25</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="6" t="str" cm="1">
+      <c r="H27" s="5" t="str" cm="1">
         <f t="array" ref="H27">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(" ",TRUE,IF(ISBLANK(A201:E207),"0","1")),"]")</f>
         <v>[1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1]</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="6" t="str">
+      <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>[0, 1]</v>
       </c>
@@ -9991,7 +10161,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/IC/Alfabeto Binario.xlsx
+++ b/IC/Alfabeto Binario.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Inteligencia Computacional\Taller Alfabeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF93A96-372A-4F60-BE42-EA5C9B194D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D77097-008E-4875-91D2-0A7567B86597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26055" windowHeight="14158" xr2:uid="{01171F3E-AF94-47E6-986C-387B8B262408}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26055" windowHeight="14158" activeTab="1" xr2:uid="{01171F3E-AF94-47E6-986C-387B8B262408}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alphabet" sheetId="4" r:id="rId1"/>
-    <sheet name="Matrix" sheetId="1" r:id="rId2"/>
-    <sheet name="Training" sheetId="2" r:id="rId3"/>
-    <sheet name="Truth Table" sheetId="3" r:id="rId4"/>
+    <sheet name="ShowUC" sheetId="4" r:id="rId1"/>
+    <sheet name="AlphabetUC" sheetId="5" r:id="rId2"/>
+    <sheet name="ShowLC" sheetId="6" r:id="rId3"/>
+    <sheet name="AlphabetLC" sheetId="1" r:id="rId4"/>
+    <sheet name="Training" sheetId="2" r:id="rId5"/>
+    <sheet name="Truth Table" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="168">
   <si>
     <t>A</t>
   </si>
@@ -407,13 +409,169 @@
   </si>
   <si>
     <t>out_is_vowel_is_valid = [</t>
+  </si>
+  <si>
+    <t># a</t>
+  </si>
+  <si>
+    <t># b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t># c</t>
+  </si>
+  <si>
+    <t># d</t>
+  </si>
+  <si>
+    <t># e</t>
+  </si>
+  <si>
+    <t># f</t>
+  </si>
+  <si>
+    <t># g</t>
+  </si>
+  <si>
+    <t># h</t>
+  </si>
+  <si>
+    <t># i</t>
+  </si>
+  <si>
+    <t># j</t>
+  </si>
+  <si>
+    <t># k</t>
+  </si>
+  <si>
+    <t># l</t>
+  </si>
+  <si>
+    <t># m</t>
+  </si>
+  <si>
+    <t># n</t>
+  </si>
+  <si>
+    <t># o</t>
+  </si>
+  <si>
+    <t># p</t>
+  </si>
+  <si>
+    <t># q</t>
+  </si>
+  <si>
+    <t># r</t>
+  </si>
+  <si>
+    <t># s</t>
+  </si>
+  <si>
+    <t># t</t>
+  </si>
+  <si>
+    <t># u</t>
+  </si>
+  <si>
+    <t># v</t>
+  </si>
+  <si>
+    <t># w</t>
+  </si>
+  <si>
+    <t># x</t>
+  </si>
+  <si>
+    <t># y</t>
+  </si>
+  <si>
+    <t># z</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +608,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,11 +662,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="0.14996795556505021"/>
@@ -865,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894597A1-251B-416D-8DE3-B8F7AF807008}">
   <dimension ref="B2:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AS35" sqref="AS35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
@@ -878,7 +1076,7 @@
   <sheetData>
     <row r="2" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B2" cm="1">
-        <f t="array" ref="B2:F8">Matrix!A1:E7</f>
+        <f t="array" ref="B2:F8">AlphabetUC!A1:E7</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -894,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2:L8">Matrix!A9:E15</f>
+        <f t="array" ref="H2:L8">AlphabetUC!A9:E15</f>
         <v>1</v>
       </c>
       <c r="I2">
@@ -910,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="N2" cm="1">
-        <f t="array" ref="N2:R8">Matrix!A17:E23</f>
+        <f t="array" ref="N2:R8">AlphabetUC!A17:E23</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -926,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="T2" cm="1">
-        <f t="array" ref="T2:X8">Matrix!A25:E31</f>
+        <f t="array" ref="T2:X8">AlphabetUC!A25:E31</f>
         <v>1</v>
       </c>
       <c r="U2">
@@ -942,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Z2" cm="1">
-        <f t="array" ref="Z2:AD8">Matrix!A33:E39</f>
+        <f t="array" ref="Z2:AD8">AlphabetUC!A33:E39</f>
         <v>1</v>
       </c>
       <c r="AA2">
@@ -958,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="AF2" cm="1">
-        <f t="array" ref="AF2:AJ8">Matrix!A41:E47</f>
+        <f t="array" ref="AF2:AJ8">AlphabetUC!A41:E47</f>
         <v>1</v>
       </c>
       <c r="AG2">
@@ -974,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="AL2" cm="1">
-        <f t="array" ref="AL2:AP8">Matrix!A49:E55</f>
+        <f t="array" ref="AL2:AP8">AlphabetUC!A49:E55</f>
         <v>0</v>
       </c>
       <c r="AM2">
@@ -1634,7 +1832,7 @@
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B10" cm="1">
-        <f t="array" ref="B10:F16">Matrix!A57:E63</f>
+        <f t="array" ref="B10:F16">AlphabetUC!A57:E63</f>
         <v>1</v>
       </c>
       <c r="C10">
@@ -1650,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="H10" cm="1">
-        <f t="array" ref="H10:L16">Matrix!A65:E71</f>
+        <f t="array" ref="H10:L16">AlphabetUC!A65:E71</f>
         <v>0</v>
       </c>
       <c r="I10">
@@ -1666,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="N10" cm="1">
-        <f t="array" ref="N10:R16">Matrix!A73:E79</f>
+        <f t="array" ref="N10:R16">AlphabetUC!A73:E79</f>
         <v>1</v>
       </c>
       <c r="O10">
@@ -1682,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="T10" cm="1">
-        <f t="array" ref="T10:X16">Matrix!A81:E87</f>
+        <f t="array" ref="T10:X16">AlphabetUC!A81:E87</f>
         <v>1</v>
       </c>
       <c r="U10">
@@ -1698,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="Z10" cm="1">
-        <f t="array" ref="Z10:AD16">Matrix!A89:E95</f>
+        <f t="array" ref="Z10:AD16">AlphabetUC!A89:E95</f>
         <v>1</v>
       </c>
       <c r="AA10">
@@ -1714,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="AF10" cm="1">
-        <f t="array" ref="AF10:AJ16">Matrix!A97:E103</f>
+        <f t="array" ref="AF10:AJ16">AlphabetUC!A97:E103</f>
         <v>1</v>
       </c>
       <c r="AG10">
@@ -1730,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="AL10" cm="1">
-        <f t="array" ref="AL10:AP16">Matrix!A105:E111</f>
+        <f t="array" ref="AL10:AP16">AlphabetUC!A105:E111</f>
         <v>1</v>
       </c>
       <c r="AM10">
@@ -2390,7 +2588,7 @@
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" cm="1">
-        <f t="array" ref="B18:F24">Matrix!A113:E119</f>
+        <f t="array" ref="B18:F24">AlphabetUC!A113:E119</f>
         <v>0</v>
       </c>
       <c r="C18">
@@ -2406,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="H18" cm="1">
-        <f t="array" ref="H18:L24">Matrix!A121:E127</f>
+        <f t="array" ref="H18:L24">AlphabetUC!A121:E127</f>
         <v>1</v>
       </c>
       <c r="I18">
@@ -2422,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="N18" cm="1">
-        <f t="array" ref="N18:R24">Matrix!A129:E135</f>
+        <f t="array" ref="N18:R24">AlphabetUC!A129:E135</f>
         <v>0</v>
       </c>
       <c r="O18">
@@ -2438,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="T18" cm="1">
-        <f t="array" ref="T18:X24">Matrix!A137:E143</f>
+        <f t="array" ref="T18:X24">AlphabetUC!A137:E143</f>
         <v>1</v>
       </c>
       <c r="U18">
@@ -2454,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Z18" cm="1">
-        <f t="array" ref="Z18:AD24">Matrix!A145:E151</f>
+        <f t="array" ref="Z18:AD24">AlphabetUC!A145:E151</f>
         <v>0</v>
       </c>
       <c r="AA18">
@@ -2470,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="AF18" cm="1">
-        <f t="array" ref="AF18:AJ24">Matrix!A153:E159</f>
+        <f t="array" ref="AF18:AJ24">AlphabetUC!A153:E159</f>
         <v>1</v>
       </c>
       <c r="AG18">
@@ -2486,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="AL18" cm="1">
-        <f t="array" ref="AL18:AP24">Matrix!A161:E167</f>
+        <f t="array" ref="AL18:AP24">AlphabetUC!A161:E167</f>
         <v>1</v>
       </c>
       <c r="AM18">
@@ -3145,8 +3343,24 @@
       </c>
     </row>
     <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B26" cm="1">
+        <f t="array" ref="B26:F32">AlphabetUC!A169:E175</f>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="H26" cm="1">
-        <f t="array" ref="H26:L32">Matrix!A169:E175</f>
+        <f t="array" ref="H26:L32">AlphabetUC!A177:E183</f>
         <v>1</v>
       </c>
       <c r="I26">
@@ -3162,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="N26" cm="1">
-        <f t="array" ref="N26:R32">Matrix!A177:E183</f>
+        <f t="array" ref="N26:R32">AlphabetUC!A185:E191</f>
         <v>1</v>
       </c>
       <c r="O26">
@@ -3178,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="T26" cm="1">
-        <f t="array" ref="T26:X32">Matrix!A185:E191</f>
+        <f t="array" ref="T26:X32">AlphabetUC!A193:E199</f>
         <v>1</v>
       </c>
       <c r="U26">
@@ -3194,39 +3408,53 @@
         <v>1</v>
       </c>
       <c r="Z26" cm="1">
-        <f t="array" ref="Z26:AD32">Matrix!A193:E199</f>
+        <f t="array" ref="Z26:AD32">AlphabetUC!A201:E207</f>
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>1</v>
       </c>
-      <c r="AF26" cm="1">
-        <f t="array" ref="AF26:AJ32">Matrix!A201:E207</f>
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>1</v>
-      </c>
-      <c r="AH26">
-        <v>1</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AJ26">
-        <v>1</v>
+      <c r="AL26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>2</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>3</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="H27">
         <v>1</v>
       </c>
@@ -3273,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -3287,23 +3515,38 @@
       <c r="AD27">
         <v>1</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>1</v>
+      <c r="AL27" s="10">
+        <v>5</v>
+      </c>
+      <c r="AM27" s="10">
+        <v>6</v>
+      </c>
+      <c r="AN27" s="10">
+        <v>7</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>8</v>
+      </c>
+      <c r="AP27" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
       <c r="H28">
         <v>1</v>
       </c>
@@ -3320,19 +3563,19 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3353,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3364,23 +3607,38 @@
       <c r="AD28">
         <v>0</v>
       </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>1</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
+      <c r="AL28" s="10">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>11</v>
+      </c>
+      <c r="AN28" s="10">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>13</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="H29">
         <v>1</v>
       </c>
@@ -3388,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3397,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3409,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3441,64 +3699,79 @@
       <c r="AD29">
         <v>0</v>
       </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
+      <c r="AL29" s="10">
+        <v>15</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>16</v>
+      </c>
+      <c r="AN29" s="10">
+        <v>17</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>18</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3507,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3518,38 +3791,53 @@
       <c r="AD30">
         <v>0</v>
       </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
+      <c r="AL30" s="10">
+        <v>20</v>
+      </c>
+      <c r="AM30" s="10">
+        <v>21</v>
+      </c>
+      <c r="AN30" s="10">
+        <v>22</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>23</v>
+      </c>
+      <c r="AP30" s="10">
+        <v>24</v>
       </c>
       <c r="AT30" s="2"/>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3558,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3567,28 +3855,28 @@
         <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3596,105 +3884,120 @@
       <c r="AD31">
         <v>0</v>
       </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
+      <c r="AL31" s="10">
+        <v>25</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>26</v>
+      </c>
+      <c r="AN31" s="10">
+        <v>27</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>28</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
         <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>1</v>
-      </c>
-      <c r="AH32">
-        <v>1</v>
-      </c>
-      <c r="AI32">
-        <v>1</v>
-      </c>
-      <c r="AJ32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>30</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>31</v>
+      </c>
+      <c r="AN32" s="10">
+        <v>32</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>33</v>
+      </c>
+      <c r="AP32" s="10">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AP33">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:AP25 A26:AE26 AG26:AK26 AN26:AP26 A27:AP33">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3703,11 +4006,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8650F690-9FE8-484A-8ED4-6A9A8A1E6816}">
-  <sheetPr codeName="Hoja1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C548D66-34E2-425E-BBDC-025428CF593E}">
   <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3948,7 +4250,7 @@
         <v>94</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L7:L30" si="1">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
       <c r="M7" t="s">
@@ -3976,7 +4278,7 @@
         <v>95</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
       <c r="M8" t="s">
@@ -4016,7 +4318,7 @@
         <v>96</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0,1],</v>
       </c>
       <c r="M9" t="s">
@@ -4084,7 +4386,7 @@
         <v>98</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L11:L34" si="2">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
       <c r="M11" t="s">
@@ -4124,7 +4426,7 @@
         <v>99</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[0,1],</v>
       </c>
       <c r="M12" t="s">
@@ -4158,7 +4460,7 @@
         <v>100</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[0,1],</v>
       </c>
       <c r="M13" t="s">
@@ -4192,7 +4494,7 @@
         <v>101</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[0,1],</v>
       </c>
       <c r="M14" t="s">
@@ -4232,7 +4534,7 @@
         <v>102</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[0,1],</v>
       </c>
       <c r="M15" t="s">
@@ -4297,7 +4599,7 @@
         <v>104</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L40" si="3">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
       <c r="M17" t="s">
@@ -4331,7 +4633,7 @@
         <v>105</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
       <c r="M18" t="s">
@@ -4362,7 +4664,7 @@
         <v>106</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
       <c r="M19" t="s">
@@ -4393,7 +4695,7 @@
         <v>107</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
       <c r="M20" t="s">
@@ -4424,7 +4726,7 @@
         <v>108</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>[0,1],</v>
       </c>
       <c r="M21" t="s">
@@ -4495,7 +4797,7 @@
         <v>110</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L23:L46" si="4">"[0,1],"</f>
         <v>[0,1],</v>
       </c>
       <c r="M23" t="s">
@@ -4523,7 +4825,7 @@
         <v>111</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
       <c r="M24" t="s">
@@ -4563,7 +4865,7 @@
         <v>112</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
       <c r="M25" t="s">
@@ -4597,7 +4899,7 @@
         <v>113</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>[0,1],</v>
       </c>
       <c r="M26" t="s">
@@ -5970,7 +6272,4896 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L6:L22" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90166D-4D8E-4FFB-856E-3A077A1B22E5}">
+  <dimension ref="B2:AT32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AS35" sqref="AS35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="42" width="2.875" customWidth="1"/>
+    <col min="43" max="43" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:F8">AlphabetLC!A1:E7</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:L8">AlphabetLC!A9:E15</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2:R8">AlphabetLC!A17:E23</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2:X8">AlphabetLC!A25:E31</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Z2" cm="1">
+        <f t="array" ref="Z2:AD8">AlphabetLC!A33:E39</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AF2" cm="1">
+        <f t="array" ref="AF2:AJ8">AlphabetLC!A41:E47</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AL2" cm="1">
+        <f t="array" ref="AL2:AP8">AlphabetLC!A49:E55</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B10" cm="1">
+        <f t="array" ref="B10:F16">AlphabetLC!A57:E63</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10:L16">AlphabetLC!A65:E71</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" cm="1">
+        <f t="array" ref="N10:R16">AlphabetLC!A73:E79</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="T10" cm="1">
+        <f t="array" ref="T10:X16">AlphabetLC!A81:E87</f>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10" cm="1">
+        <f t="array" ref="Z10:AD16">AlphabetLC!A89:E95</f>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AF10" cm="1">
+        <f t="array" ref="AF10:AJ16">AlphabetLC!A97:E103</f>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AL10" cm="1">
+        <f t="array" ref="AL10:AP16">AlphabetLC!A105:E111</f>
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:F24">AlphabetLC!A113:E119</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18:L24">AlphabetLC!A121:E127</f>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18" cm="1">
+        <f t="array" ref="N18:R24">AlphabetLC!A129:E135</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="T18" cm="1">
+        <f t="array" ref="T18:X24">AlphabetLC!A137:E143</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Z18" cm="1">
+        <f t="array" ref="Z18:AD24">AlphabetLC!A145:E151</f>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AF18" cm="1">
+        <f t="array" ref="AF18:AJ24">AlphabetLC!A153:E159</f>
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AL18" cm="1">
+        <f t="array" ref="AL18:AP24">AlphabetLC!A161:E167</f>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B26" cm="1">
+        <f t="array" ref="B26:F32">AlphabetLC!A169:E175</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26:L32">AlphabetLC!A177:E183</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26" cm="1">
+        <f t="array" ref="N26:R32">AlphabetLC!A185:E191</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="T26" cm="1">
+        <f t="array" ref="T26:X32">AlphabetLC!A193:E199</f>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Z26" cm="1">
+        <f t="array" ref="Z26:AD32">AlphabetLC!A201:E207</f>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>2</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>3</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="10">
+        <v>5</v>
+      </c>
+      <c r="AM27" s="10">
+        <v>6</v>
+      </c>
+      <c r="AN27" s="10">
+        <v>7</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>8</v>
+      </c>
+      <c r="AP27" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>11</v>
+      </c>
+      <c r="AN28" s="10">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>13</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>15</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>16</v>
+      </c>
+      <c r="AN29" s="10">
+        <v>17</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>18</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="10">
+        <v>20</v>
+      </c>
+      <c r="AM30" s="10">
+        <v>21</v>
+      </c>
+      <c r="AN30" s="10">
+        <v>22</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>23</v>
+      </c>
+      <c r="AP30" s="10">
+        <v>24</v>
+      </c>
+      <c r="AT30" s="2"/>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="10">
+        <v>25</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>26</v>
+      </c>
+      <c r="AN31" s="10">
+        <v>27</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>28</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>30</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>31</v>
+      </c>
+      <c r="AN32" s="10">
+        <v>32</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>33</v>
+      </c>
+      <c r="AP32" s="10">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AP25 A26:AE26 AG26:AK26 AN26:AP26 A27:AP33">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8650F690-9FE8-484A-8ED4-6A9A8A1E6816}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:M207"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="2.625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="94.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="3" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A1:E7),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,1,1,1,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,0,1,1,0,1],</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f>"[1,1],"</f>
+        <v>[1,1],</v>
+      </c>
+      <c r="M2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="3" t="str" cm="1">
+        <f t="array" ref="H3">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A9:E15),"0","1")),"]",",")</f>
+        <v>[1,0,0,0,0,1,0,0,0,0,1,1,1,0,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,1,1,1,0,0],</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" ref="L3:L26" si="0">"[0,1],"</f>
+        <v>[0,1],</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="3" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A17:E23),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,1,1,0,0,1,0,0,1,0,1,0,0,0,0,1,0,0,1,0,0,1,1,0,0],</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="3" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A25:E31),"0","1")),"]",",")</f>
+        <v>[0,0,0,1,0,0,0,0,1,0,0,1,1,1,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,0,1,1,1,0],</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="3" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A33:E39),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,1,1,1,0,1,0,0,1,0,1,1,1,1,0,1,0,0,0,0,0,1,1,1,0],</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f>"[1,1],"</f>
+        <v>[1,1],</v>
+      </c>
+      <c r="M6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="3" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A41:E47),"0","1")),"]",",")</f>
+        <v>[0,1,1,0,0,1,0,0,1,0,1,0,0,0,0,1,1,1,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="3" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A49:E55),"0","1")),"]",",")</f>
+        <v>[0,1,1,1,0,1,0,0,1,0,1,0,0,1,0,0,1,1,1,0,0,0,0,1,0,1,0,0,1,0,0,1,1,0,0],</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="3" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A57:E63),"0","1")),"]",",")</f>
+        <v>[1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,1,1,0,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0],</v>
+      </c>
+      <c r="I9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="3" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A65:E71),"0","1")),"]",",")</f>
+        <v>[0,0,1,0,0,0,0,0,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f>"[1,1],"</f>
+        <v>[1,1],</v>
+      </c>
+      <c r="M10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="3" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A73:E79),"0","1")),"]",",")</f>
+        <v>[0,0,1,0,0,0,0,0,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,1,0,1,0,0,0,1,0,0,0],</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="3" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A81:E87),"0","1")),"]",",")</f>
+        <v>[1,0,0,1,0,1,0,0,1,0,1,0,1,0,0,1,1,0,0,0,1,0,1,0,0,1,0,0,1,0,1,0,0,1,0],</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="3" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A89:E95),"0","1")),"]",",")</f>
+        <v>[0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="3" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A97:E103),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,0,1,0,1,1,0,1,0,1,1,0,1,0,1,1,0,1,0,1],</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="3" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A105:E111),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,1,1,1,1,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0],</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="3" t="str" cm="1">
+        <f t="array" ref="H16">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A113:E119),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,1,1,0,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,0,1,1,0,0],</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f>"[1,1],"</f>
+        <v>[1,1],</v>
+      </c>
+      <c r="M16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="3" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A121:E127),"0","1")),"]",",")</f>
+        <v>[1,1,1,0,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,1,1,1,0,0,1,0,0,0,0,1,0,0,0,0],</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="3" t="str" cm="1">
+        <f t="array" ref="H18">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A129:E135),"0","1")),"]",",")</f>
+        <v>[0,1,1,1,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,0,1,1,1,0,0,0,0,1,0,0,0,0,1,0],</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="3" t="str" cm="1">
+        <f t="array" ref="H19">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A137:E143),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,1,0,1,1,0,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0],</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="3" t="str" cm="1">
+        <f t="array" ref="H20">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A145:E151),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,1,1,1,0,1,0,0,0,0,0,1,1,0,0,0,0,0,1,0,1,1,1,0,0],</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="3" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A153:E159),"0","1")),"]",",")</f>
+        <v>[0,0,1,0,0,0,0,1,0,0,0,1,1,1,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0,0,0,1,0,0],</v>
+      </c>
+      <c r="I21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="3" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A161:E167),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,0,1,1,0,1],</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f>"[1,1],"</f>
+        <v>[1,1],</v>
+      </c>
+      <c r="M22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="3" t="str" cm="1">
+        <f t="array" ref="H23">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A169:E175),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,0,1,1,0,0],</v>
+      </c>
+      <c r="I23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="3" t="str" cm="1">
+        <f t="array" ref="H24">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A177:E183),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,1,0,0,0,1,1,0,1,0,1,1,0,1,0,1,1,0,1,0,1,0,1,0,1,0],</v>
+      </c>
+      <c r="I24" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="3" t="str" cm="1">
+        <f t="array" ref="H25">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A185:E191),"0","1")),"]",",")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,1,0,0,1,0,1,0,1,0,0,0,1,1,0,0,0,1,0,1,0,1,0,0,1,0],</v>
+      </c>
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="3" t="str" cm="1">
+        <f t="array" ref="H26">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A193:E199),"0","1")),"]",",")</f>
+        <v>[1,0,0,1,0,1,0,0,1,0,1,0,0,1,0,0,1,1,1,0,0,0,0,1,0,1,0,0,1,0,0,1,1,0,0],</v>
+      </c>
+      <c r="I26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,1],</v>
+      </c>
+      <c r="M26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="3" t="str" cm="1">
+        <f t="array" ref="H27">_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,IF(ISBLANK(A201:E207),"0","1")),"]","]")</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,1,1,1,1,0,0,0,0,1,0,0,1,1,0,0,1,0,0,0,0,1,1,1,1,0]]</v>
+      </c>
+      <c r="I27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <f>"[0,1]]"</f>
+        <v>[0,1]]</v>
+      </c>
+      <c r="M27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>1</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>1</v>
+      </c>
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>1</v>
+      </c>
+      <c r="D62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>1</v>
+      </c>
+      <c r="D63" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>1</v>
+      </c>
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>1</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>1</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>1</v>
+      </c>
+      <c r="B84" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>1</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>1</v>
+      </c>
+      <c r="D86" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>1</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>1</v>
+      </c>
+      <c r="B99" s="11">
+        <v>1</v>
+      </c>
+      <c r="C99" s="11">
+        <v>1</v>
+      </c>
+      <c r="D99" s="11">
+        <v>1</v>
+      </c>
+      <c r="E99" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>1</v>
+      </c>
+      <c r="C100" s="11">
+        <v>1</v>
+      </c>
+      <c r="E100" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>1</v>
+      </c>
+      <c r="C101" s="11">
+        <v>1</v>
+      </c>
+      <c r="E101" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>1</v>
+      </c>
+      <c r="C102" s="11">
+        <v>1</v>
+      </c>
+      <c r="E102" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>1</v>
+      </c>
+      <c r="C103" s="11">
+        <v>1</v>
+      </c>
+      <c r="E103" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>1</v>
+      </c>
+      <c r="B107" s="11">
+        <v>1</v>
+      </c>
+      <c r="C107" s="11">
+        <v>1</v>
+      </c>
+      <c r="D107" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>1</v>
+      </c>
+      <c r="D108" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>1</v>
+      </c>
+      <c r="D109" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>1</v>
+      </c>
+      <c r="D110" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <v>1</v>
+      </c>
+      <c r="D111" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="11">
+        <v>1</v>
+      </c>
+      <c r="C115" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <v>1</v>
+      </c>
+      <c r="D116" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <v>1</v>
+      </c>
+      <c r="D117" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
+        <v>1</v>
+      </c>
+      <c r="D118" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="11">
+        <v>1</v>
+      </c>
+      <c r="C119" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <v>1</v>
+      </c>
+      <c r="B121" s="11">
+        <v>1</v>
+      </c>
+      <c r="C121" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>1</v>
+      </c>
+      <c r="D122" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>1</v>
+      </c>
+      <c r="D123" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>1</v>
+      </c>
+      <c r="D124" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>1</v>
+      </c>
+      <c r="B125" s="11">
+        <v>1</v>
+      </c>
+      <c r="C125" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="11">
+        <v>1</v>
+      </c>
+      <c r="C129" s="11">
+        <v>1</v>
+      </c>
+      <c r="D129" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>1</v>
+      </c>
+      <c r="D130" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>1</v>
+      </c>
+      <c r="D131" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <v>1</v>
+      </c>
+      <c r="D132" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="11">
+        <v>1</v>
+      </c>
+      <c r="C133" s="11">
+        <v>1</v>
+      </c>
+      <c r="D133" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <v>1</v>
+      </c>
+      <c r="C139" s="11">
+        <v>1</v>
+      </c>
+      <c r="D139" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <v>1</v>
+      </c>
+      <c r="B140" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="11">
+        <v>1</v>
+      </c>
+      <c r="C147" s="11">
+        <v>1</v>
+      </c>
+      <c r="D147" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="11">
+        <v>1</v>
+      </c>
+      <c r="C149" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="11">
+        <v>1</v>
+      </c>
+      <c r="B151" s="11">
+        <v>1</v>
+      </c>
+      <c r="C151" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="11">
+        <v>1</v>
+      </c>
+      <c r="C155" s="11">
+        <v>1</v>
+      </c>
+      <c r="D155" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="11">
+        <v>1</v>
+      </c>
+      <c r="D163" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="11">
+        <v>1</v>
+      </c>
+      <c r="D164" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="11">
+        <v>1</v>
+      </c>
+      <c r="D165" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="11">
+        <v>1</v>
+      </c>
+      <c r="D166" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="11">
+        <v>1</v>
+      </c>
+      <c r="C167" s="11">
+        <v>1</v>
+      </c>
+      <c r="E167" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="11">
+        <v>1</v>
+      </c>
+      <c r="D171" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="11">
+        <v>1</v>
+      </c>
+      <c r="D172" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="11">
+        <v>1</v>
+      </c>
+      <c r="D173" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="11">
+        <v>1</v>
+      </c>
+      <c r="D174" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="11">
+        <v>1</v>
+      </c>
+      <c r="C175" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="11">
+        <v>1</v>
+      </c>
+      <c r="E179" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="11">
+        <v>1</v>
+      </c>
+      <c r="C180" s="11">
+        <v>1</v>
+      </c>
+      <c r="E180" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="11">
+        <v>1</v>
+      </c>
+      <c r="C181" s="11">
+        <v>1</v>
+      </c>
+      <c r="E181" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="11">
+        <v>1</v>
+      </c>
+      <c r="C182" s="11">
+        <v>1</v>
+      </c>
+      <c r="E182" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="11">
+        <v>1</v>
+      </c>
+      <c r="D183" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="11">
+        <v>1</v>
+      </c>
+      <c r="D187" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="11">
+        <v>1</v>
+      </c>
+      <c r="C188" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="11">
+        <v>1</v>
+      </c>
+      <c r="C189" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="11">
+        <v>1</v>
+      </c>
+      <c r="D190" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="11">
+        <v>1</v>
+      </c>
+      <c r="D191" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <v>1</v>
+      </c>
+      <c r="D193" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="11">
+        <v>1</v>
+      </c>
+      <c r="D194" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="11">
+        <v>1</v>
+      </c>
+      <c r="D195" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="11">
+        <v>1</v>
+      </c>
+      <c r="C196" s="11">
+        <v>1</v>
+      </c>
+      <c r="D196" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="11">
+        <v>1</v>
+      </c>
+      <c r="D198" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="11">
+        <v>1</v>
+      </c>
+      <c r="C199" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="11">
+        <v>1</v>
+      </c>
+      <c r="B203" s="11">
+        <v>1</v>
+      </c>
+      <c r="C203" s="11">
+        <v>1</v>
+      </c>
+      <c r="D203" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="11">
+        <v>1</v>
+      </c>
+      <c r="C205" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="11">
+        <v>1</v>
+      </c>
+      <c r="B207" s="11">
+        <v>1</v>
+      </c>
+      <c r="C207" s="11">
+        <v>1</v>
+      </c>
+      <c r="D207" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5981,7 +11172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A127CE0-2311-4989-8F6F-C98C92B59F6D}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K207"/>
@@ -8114,7 +13305,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8125,7 +13316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D28E15-733C-45BB-9D4B-693E33518AA9}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:J207"/>
@@ -10161,7 +15352,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
